--- a/data/pca/factorExposure/factorExposure_2018-03-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.006802774310103418</v>
+        <v>-0.01259821998469257</v>
       </c>
       <c r="C2">
-        <v>-0.025203920197966</v>
+        <v>0.02470084777258597</v>
       </c>
       <c r="D2">
-        <v>0.01981205384032869</v>
+        <v>0.02401869036070487</v>
       </c>
       <c r="E2">
-        <v>0.008891264086200499</v>
+        <v>0.02209887206660837</v>
       </c>
       <c r="F2">
-        <v>-0.08152879665399484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0002152351235188823</v>
+      </c>
+      <c r="G2">
+        <v>0.01225967061708274</v>
+      </c>
+      <c r="H2">
+        <v>0.04510727387957009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08784862177310582</v>
+        <v>-0.0566771067892692</v>
       </c>
       <c r="C3">
-        <v>-0.04907657668693111</v>
+        <v>0.07786256594214189</v>
       </c>
       <c r="D3">
-        <v>-0.008748325908074587</v>
+        <v>0.005241501019674405</v>
       </c>
       <c r="E3">
-        <v>0.03354193918188705</v>
+        <v>0.03567937718727428</v>
       </c>
       <c r="F3">
-        <v>-0.3153459863836882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.08125041782147423</v>
+      </c>
+      <c r="G3">
+        <v>0.0740343573956832</v>
+      </c>
+      <c r="H3">
+        <v>0.1175353056650861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04527836810575993</v>
+        <v>-0.03437843700883648</v>
       </c>
       <c r="C4">
-        <v>-0.01306013606085768</v>
+        <v>0.06279769593420259</v>
       </c>
       <c r="D4">
-        <v>0.0301477765365272</v>
+        <v>0.01723222238010279</v>
       </c>
       <c r="E4">
-        <v>-0.03809464323650866</v>
+        <v>-0.02300976796219451</v>
       </c>
       <c r="F4">
-        <v>-0.06153735756732073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.002755640890540379</v>
+      </c>
+      <c r="G4">
+        <v>0.04739087193367061</v>
+      </c>
+      <c r="H4">
+        <v>0.05138109888699476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03463683569001012</v>
+        <v>-0.0184369064719325</v>
       </c>
       <c r="C6">
-        <v>-0.01723142813141689</v>
+        <v>0.06471941868600951</v>
       </c>
       <c r="D6">
-        <v>0.04002176725295583</v>
+        <v>0.01237736250681786</v>
       </c>
       <c r="E6">
-        <v>-0.02756026082504026</v>
+        <v>-0.009702751524153822</v>
       </c>
       <c r="F6">
-        <v>-0.02080221039339985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01503949144184969</v>
+      </c>
+      <c r="G6">
+        <v>0.02764520140440745</v>
+      </c>
+      <c r="H6">
+        <v>0.04995675057267787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04126041002522839</v>
+        <v>-0.006054804938432026</v>
       </c>
       <c r="C7">
-        <v>0.03117969934691983</v>
+        <v>0.03387210633949698</v>
       </c>
       <c r="D7">
-        <v>0.02285666743621905</v>
+        <v>0.01062261746806924</v>
       </c>
       <c r="E7">
-        <v>-0.008099569014516909</v>
+        <v>-0.03931988382933613</v>
       </c>
       <c r="F7">
-        <v>-0.02712515634955852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02777783356778013</v>
+      </c>
+      <c r="G7">
+        <v>0.006256906598377777</v>
+      </c>
+      <c r="H7">
+        <v>0.03229094796399639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01446452031356449</v>
+        <v>0.003531988503482111</v>
       </c>
       <c r="C8">
-        <v>0.002173111835803301</v>
+        <v>0.009212350816380608</v>
       </c>
       <c r="D8">
-        <v>0.03668110193716052</v>
+        <v>0.001674396733798356</v>
       </c>
       <c r="E8">
-        <v>-0.02700034855980729</v>
+        <v>-0.006751125302349116</v>
       </c>
       <c r="F8">
-        <v>-0.05343143375712413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01878012444592774</v>
+      </c>
+      <c r="G8">
+        <v>0.02891035099066038</v>
+      </c>
+      <c r="H8">
+        <v>0.02477328676036767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03202813506380855</v>
+        <v>-0.01935916081197693</v>
       </c>
       <c r="C9">
-        <v>-0.006023506583347917</v>
+        <v>0.04792659131106711</v>
       </c>
       <c r="D9">
-        <v>0.03074540047928441</v>
+        <v>0.01188122068226049</v>
       </c>
       <c r="E9">
-        <v>-0.01119990224636737</v>
+        <v>-0.005003979350322531</v>
       </c>
       <c r="F9">
-        <v>-0.07399931811571718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01479222838193297</v>
+      </c>
+      <c r="G9">
+        <v>0.03056982568059111</v>
+      </c>
+      <c r="H9">
+        <v>0.05113961693026795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03603629402345546</v>
+        <v>-0.138743101263332</v>
       </c>
       <c r="C10">
-        <v>-0.001873718435404696</v>
+        <v>-0.1385596075022752</v>
       </c>
       <c r="D10">
-        <v>-0.1439594581873739</v>
+        <v>-0.02449343436345212</v>
       </c>
       <c r="E10">
-        <v>0.05556632956800422</v>
+        <v>0.01978980814254903</v>
       </c>
       <c r="F10">
-        <v>-0.05192391834049432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05078036597036111</v>
+      </c>
+      <c r="G10">
+        <v>0.0006638000023001598</v>
+      </c>
+      <c r="H10">
+        <v>-0.007900035948126508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02879363875370301</v>
+        <v>-0.01313685930164448</v>
       </c>
       <c r="C11">
-        <v>-0.02405750577908201</v>
+        <v>0.0501915611692838</v>
       </c>
       <c r="D11">
-        <v>0.03382234723333099</v>
+        <v>-0.001010159855966523</v>
       </c>
       <c r="E11">
-        <v>-0.02429421923708319</v>
+        <v>-0.0006517082655082809</v>
       </c>
       <c r="F11">
-        <v>-0.02277628761365552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.005434247640428057</v>
+      </c>
+      <c r="G11">
+        <v>0.01482848810392105</v>
+      </c>
+      <c r="H11">
+        <v>0.0466549771869167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04162634508590794</v>
+        <v>-0.01852421061814747</v>
       </c>
       <c r="C12">
-        <v>-0.02490691067438225</v>
+        <v>0.04809672053755563</v>
       </c>
       <c r="D12">
-        <v>0.02716834063067254</v>
+        <v>0.00252248812962641</v>
       </c>
       <c r="E12">
-        <v>-0.03295953122243218</v>
+        <v>-0.01470393553525529</v>
       </c>
       <c r="F12">
-        <v>0.003358040456377542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.006275860458019033</v>
+      </c>
+      <c r="G12">
+        <v>0.007775220596684722</v>
+      </c>
+      <c r="H12">
+        <v>0.01873004429777813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.006040988732479083</v>
+        <v>-0.01348591859956627</v>
       </c>
       <c r="C13">
-        <v>-0.01884393265337669</v>
+        <v>0.02460450933818567</v>
       </c>
       <c r="D13">
-        <v>0.008469106312038422</v>
+        <v>0.02031243650513015</v>
       </c>
       <c r="E13">
-        <v>-0.009780455509883637</v>
+        <v>0.01657722286758628</v>
       </c>
       <c r="F13">
-        <v>-0.06890480652491714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.005821793029760334</v>
+      </c>
+      <c r="G13">
+        <v>0.0409222670063019</v>
+      </c>
+      <c r="H13">
+        <v>0.06525401228201907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02518202264366167</v>
+        <v>-0.007019474307803119</v>
       </c>
       <c r="C14">
-        <v>0.003145730615340427</v>
+        <v>0.0212440296169268</v>
       </c>
       <c r="D14">
-        <v>0.01440212871194207</v>
+        <v>0.005996629503741185</v>
       </c>
       <c r="E14">
-        <v>-0.01562305999616381</v>
+        <v>-0.01342061955470527</v>
       </c>
       <c r="F14">
-        <v>-0.04182628236545988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01707087445070822</v>
+      </c>
+      <c r="G14">
+        <v>0.02239174991009057</v>
+      </c>
+      <c r="H14">
+        <v>0.01688265843644629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03027096070140212</v>
+        <v>-0.01522911331440185</v>
       </c>
       <c r="C16">
-        <v>-0.02347664214480497</v>
+        <v>0.0439021547447335</v>
       </c>
       <c r="D16">
-        <v>0.0376394422395266</v>
+        <v>-0.001555755048051641</v>
       </c>
       <c r="E16">
-        <v>-0.02487846703747733</v>
+        <v>-0.004864787895765656</v>
       </c>
       <c r="F16">
-        <v>-0.02787443155865239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.002990064701306545</v>
+      </c>
+      <c r="G16">
+        <v>0.01633182424302303</v>
+      </c>
+      <c r="H16">
+        <v>0.03591714069241513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03458183198342673</v>
+        <v>-0.01559871827174081</v>
       </c>
       <c r="C19">
-        <v>-0.01560628696531721</v>
+        <v>0.04334454470888291</v>
       </c>
       <c r="D19">
-        <v>0.03442164903843799</v>
+        <v>0.01053790317502271</v>
       </c>
       <c r="E19">
-        <v>-0.03931047818856222</v>
+        <v>-0.007142370798662372</v>
       </c>
       <c r="F19">
-        <v>-0.0716616311999482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01816828519139283</v>
+      </c>
+      <c r="G19">
+        <v>0.04582260915850437</v>
+      </c>
+      <c r="H19">
+        <v>0.05264635793273733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003232143144294508</v>
+        <v>-0.002448066076197097</v>
       </c>
       <c r="C20">
-        <v>0.009448556617062974</v>
+        <v>0.02129315698536368</v>
       </c>
       <c r="D20">
-        <v>0.002827254098794763</v>
+        <v>0.01013825568899224</v>
       </c>
       <c r="E20">
-        <v>-0.01356839660939503</v>
+        <v>0.001741495591988052</v>
       </c>
       <c r="F20">
-        <v>-0.04584360361561357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02099752740682522</v>
+      </c>
+      <c r="G20">
+        <v>0.03502132307076163</v>
+      </c>
+      <c r="H20">
+        <v>0.02804815702586855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02138571722508619</v>
+        <v>-0.006195994732979423</v>
       </c>
       <c r="C21">
-        <v>0.01009239377857799</v>
+        <v>0.02137931224131729</v>
       </c>
       <c r="D21">
-        <v>0.02962786792579438</v>
+        <v>0.0125838835154526</v>
       </c>
       <c r="E21">
-        <v>-0.01268854662992463</v>
+        <v>-0.009694380219248127</v>
       </c>
       <c r="F21">
-        <v>-0.01666408005291494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02333068624274054</v>
+      </c>
+      <c r="G21">
+        <v>0.02027713704279357</v>
+      </c>
+      <c r="H21">
+        <v>0.03868920700205141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02569305932052743</v>
+        <v>-0.008793928104214237</v>
       </c>
       <c r="C24">
-        <v>-0.01992381701728205</v>
+        <v>0.04196088646730597</v>
       </c>
       <c r="D24">
-        <v>0.01787670410469964</v>
+        <v>0.003997288773089151</v>
       </c>
       <c r="E24">
-        <v>-0.02128214630335669</v>
+        <v>-0.005167907934641711</v>
       </c>
       <c r="F24">
-        <v>-0.02614640948438323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.007941397186306964</v>
+      </c>
+      <c r="G24">
+        <v>0.007835627450460802</v>
+      </c>
+      <c r="H24">
+        <v>0.04117354622778371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03091509994642996</v>
+        <v>-0.02315820905856976</v>
       </c>
       <c r="C25">
-        <v>-0.02004494793766978</v>
+        <v>0.05000242470026159</v>
       </c>
       <c r="D25">
-        <v>0.02816219540761173</v>
+        <v>0.006887052440007083</v>
       </c>
       <c r="E25">
-        <v>-0.01976087299002833</v>
+        <v>-0.01163888998041739</v>
       </c>
       <c r="F25">
-        <v>-0.02957497460854182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.008395419190566116</v>
+      </c>
+      <c r="G25">
+        <v>0.01737000696232114</v>
+      </c>
+      <c r="H25">
+        <v>0.03813296188527126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01417177476197259</v>
+        <v>-0.005880052011753535</v>
       </c>
       <c r="C26">
-        <v>-0.005072765039324341</v>
+        <v>0.005548856203234465</v>
       </c>
       <c r="D26">
-        <v>0.01328913626989657</v>
+        <v>0.02229035413888146</v>
       </c>
       <c r="E26">
-        <v>0.01070382545954408</v>
+        <v>-0.00282680560762996</v>
       </c>
       <c r="F26">
-        <v>-0.04981321157930391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01286484652671906</v>
+      </c>
+      <c r="G26">
+        <v>0.007798405733799359</v>
+      </c>
+      <c r="H26">
+        <v>0.01888439497950354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02858813466042534</v>
+        <v>-0.008160828374234099</v>
       </c>
       <c r="C27">
-        <v>-0.00702891855889268</v>
+        <v>0.009230964568961207</v>
       </c>
       <c r="D27">
-        <v>-0.003130842091481547</v>
+        <v>-0.001742533717284025</v>
       </c>
       <c r="E27">
-        <v>-0.03142725422832978</v>
+        <v>-0.009533762776987564</v>
       </c>
       <c r="F27">
-        <v>-0.004520606032491551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.00732076834477544</v>
+      </c>
+      <c r="G27">
+        <v>0.008041919382852897</v>
+      </c>
+      <c r="H27">
+        <v>-0.0105192753290983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07405954500873463</v>
+        <v>-0.1917107747023546</v>
       </c>
       <c r="C28">
-        <v>-0.008425560212527454</v>
+        <v>-0.1779975162882268</v>
       </c>
       <c r="D28">
-        <v>-0.2115301300930717</v>
+        <v>-0.0194131148024516</v>
       </c>
       <c r="E28">
-        <v>0.09110960987494483</v>
+        <v>0.002584505860120228</v>
       </c>
       <c r="F28">
-        <v>-0.05067534290616705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05188440089221934</v>
+      </c>
+      <c r="G28">
+        <v>-0.009850515105876624</v>
+      </c>
+      <c r="H28">
+        <v>-0.01102738659911508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02572809040593847</v>
+        <v>-0.01171625877029987</v>
       </c>
       <c r="C29">
-        <v>-0.000399105678336808</v>
+        <v>0.01883283938006159</v>
       </c>
       <c r="D29">
-        <v>0.01512983127412431</v>
+        <v>0.004934284126313695</v>
       </c>
       <c r="E29">
-        <v>-0.01736457892240328</v>
+        <v>-0.01031047558718173</v>
       </c>
       <c r="F29">
-        <v>-0.04007739362896709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01845028849864295</v>
+      </c>
+      <c r="G29">
+        <v>0.02243537261108292</v>
+      </c>
+      <c r="H29">
+        <v>0.008894789157057992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03166184267599569</v>
+        <v>-0.02156109596779535</v>
       </c>
       <c r="C30">
-        <v>-0.06863197106138134</v>
+        <v>0.08749733593832522</v>
       </c>
       <c r="D30">
-        <v>0.05189559117621066</v>
+        <v>0.0223412356564333</v>
       </c>
       <c r="E30">
-        <v>-0.02610902223189947</v>
+        <v>0.02862267149058266</v>
       </c>
       <c r="F30">
-        <v>-0.07913406707988004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.01470919721665495</v>
+      </c>
+      <c r="G30">
+        <v>0.05027359914127481</v>
+      </c>
+      <c r="H30">
+        <v>0.07146676878780478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04733733868565202</v>
+        <v>-0.03563771061398902</v>
       </c>
       <c r="C31">
-        <v>-0.02741334921406025</v>
+        <v>0.03351864045832815</v>
       </c>
       <c r="D31">
-        <v>0.01540011382538741</v>
+        <v>-0.0003604588576621474</v>
       </c>
       <c r="E31">
-        <v>-0.02338651608611999</v>
+        <v>-0.004801395226648002</v>
       </c>
       <c r="F31">
-        <v>-0.03278047291997712</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01311258780786848</v>
+      </c>
+      <c r="G31">
+        <v>0.008845618618960339</v>
+      </c>
+      <c r="H31">
+        <v>0.0004422512880634402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02592942264480257</v>
+        <v>0.0021600247705395</v>
       </c>
       <c r="C32">
-        <v>0.01524247277403555</v>
+        <v>0.01276407130355057</v>
       </c>
       <c r="D32">
-        <v>0.05263059181345987</v>
+        <v>-0.007950177914760669</v>
       </c>
       <c r="E32">
-        <v>-0.04178735837915508</v>
+        <v>-0.03099023220369002</v>
       </c>
       <c r="F32">
-        <v>-0.03840347685092835</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.01663073996766398</v>
+      </c>
+      <c r="G32">
+        <v>0.04890655862500295</v>
+      </c>
+      <c r="H32">
+        <v>0.0428212925202713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02963307773828179</v>
+        <v>-0.01658396013399326</v>
       </c>
       <c r="C33">
-        <v>-0.04124287862562032</v>
+        <v>0.04803239935249227</v>
       </c>
       <c r="D33">
-        <v>0.04429258779171497</v>
+        <v>0.01047295408830647</v>
       </c>
       <c r="E33">
-        <v>-0.009023061778711532</v>
+        <v>0.02369653399893167</v>
       </c>
       <c r="F33">
-        <v>-0.05386374039461136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01650858432436288</v>
+      </c>
+      <c r="G33">
+        <v>0.01664574090183168</v>
+      </c>
+      <c r="H33">
+        <v>0.04741093886934422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03426459266671734</v>
+        <v>-0.02432577337455948</v>
       </c>
       <c r="C34">
-        <v>-0.01525100056399917</v>
+        <v>0.0512164184892232</v>
       </c>
       <c r="D34">
-        <v>0.0355445973687615</v>
+        <v>-0.009654242096722799</v>
       </c>
       <c r="E34">
-        <v>-0.03139766142369665</v>
+        <v>-0.0201262637884479</v>
       </c>
       <c r="F34">
-        <v>-0.02217872325416389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.009929620176725204</v>
+      </c>
+      <c r="G34">
+        <v>0.01097298948213184</v>
+      </c>
+      <c r="H34">
+        <v>0.03584362871635946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01911384301022196</v>
+        <v>-0.01254592638603441</v>
       </c>
       <c r="C36">
-        <v>0.001710702297316348</v>
+        <v>0.006575968874194866</v>
       </c>
       <c r="D36">
-        <v>0.005026241851432631</v>
+        <v>0.009019015407129346</v>
       </c>
       <c r="E36">
-        <v>-0.01155722373463813</v>
+        <v>-0.005829274141575281</v>
       </c>
       <c r="F36">
-        <v>-0.02926005489198991</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01396351168317825</v>
+      </c>
+      <c r="G36">
+        <v>0.009317999972211465</v>
+      </c>
+      <c r="H36">
+        <v>0.01175098368355157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01253565950655672</v>
+        <v>-0.02636605820201343</v>
       </c>
       <c r="C38">
-        <v>-0.009121785840329456</v>
+        <v>0.02223004790412225</v>
       </c>
       <c r="D38">
-        <v>-0.002717778090563603</v>
+        <v>-0.01131343149800105</v>
       </c>
       <c r="E38">
-        <v>0.01907158076433591</v>
+        <v>-0.0008245776554934155</v>
       </c>
       <c r="F38">
-        <v>-0.04259761980493427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.001200781918881831</v>
+      </c>
+      <c r="G38">
+        <v>0.01359842364801815</v>
+      </c>
+      <c r="H38">
+        <v>0.03461304548607581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02572430247888917</v>
+        <v>-0.001401653742101342</v>
       </c>
       <c r="C39">
-        <v>-0.02093607503867537</v>
+        <v>0.08791937183630766</v>
       </c>
       <c r="D39">
-        <v>0.05855762867051408</v>
+        <v>0.009035303235061449</v>
       </c>
       <c r="E39">
-        <v>-0.0234413824307436</v>
+        <v>0.003348421912229576</v>
       </c>
       <c r="F39">
-        <v>-0.04377818005685358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.009948716660055125</v>
+      </c>
+      <c r="G39">
+        <v>0.02268516022499563</v>
+      </c>
+      <c r="H39">
+        <v>0.07672902807681181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01155378082934862</v>
+        <v>-0.01869173847213217</v>
       </c>
       <c r="C40">
-        <v>-0.04329030535637336</v>
+        <v>0.02963324854204956</v>
       </c>
       <c r="D40">
-        <v>0.01694891376930264</v>
+        <v>0.00798346532856555</v>
       </c>
       <c r="E40">
-        <v>-0.03108326340802275</v>
+        <v>0.01187850528507971</v>
       </c>
       <c r="F40">
-        <v>-0.03026405915295097</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02470827610011846</v>
+      </c>
+      <c r="G40">
+        <v>0.02265058469262491</v>
+      </c>
+      <c r="H40">
+        <v>0.04390454263203766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008428665836606635</v>
+        <v>-0.01199786755059902</v>
       </c>
       <c r="C41">
-        <v>-0.001318678330813178</v>
+        <v>-0.007603409506623107</v>
       </c>
       <c r="D41">
-        <v>0.003711319049851643</v>
+        <v>0.002054533510297399</v>
       </c>
       <c r="E41">
-        <v>0.01295884575001383</v>
+        <v>-0.001993005421853824</v>
       </c>
       <c r="F41">
-        <v>-0.00532301570827929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007111219804599855</v>
+      </c>
+      <c r="G41">
+        <v>-0.008144996360614356</v>
+      </c>
+      <c r="H41">
+        <v>-0.002968376349095798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.233638231259985</v>
+        <v>-0.07958286592436833</v>
       </c>
       <c r="C42">
-        <v>-0.2909323098707337</v>
+        <v>0.2126884108884414</v>
       </c>
       <c r="D42">
-        <v>0.2845678039242771</v>
+        <v>0.1220598862351677</v>
       </c>
       <c r="E42">
-        <v>0.8112904792944441</v>
+        <v>0.3520117410314894</v>
       </c>
       <c r="F42">
-        <v>0.2853712038225635</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.2889303850341314</v>
+      </c>
+      <c r="G42">
+        <v>-0.8396048202648871</v>
+      </c>
+      <c r="H42">
+        <v>0.05647101817290294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01106292593221592</v>
+        <v>-0.01290023506125797</v>
       </c>
       <c r="C43">
-        <v>-0.005731482907037751</v>
+        <v>-0.005861287076280357</v>
       </c>
       <c r="D43">
-        <v>0.006399321976935107</v>
+        <v>0.002757363860370692</v>
       </c>
       <c r="E43">
-        <v>0.001702521478763718</v>
+        <v>-0.002151141200275656</v>
       </c>
       <c r="F43">
-        <v>-0.02516667244069482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004928841307010862</v>
+      </c>
+      <c r="G43">
+        <v>-0.007871173121578322</v>
+      </c>
+      <c r="H43">
+        <v>0.006032871031202227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02600640531195225</v>
+        <v>-0.006160461536895923</v>
       </c>
       <c r="C44">
-        <v>0.006752427807072056</v>
+        <v>0.03968453538264458</v>
       </c>
       <c r="D44">
-        <v>0.02981622491832813</v>
+        <v>0.003681411045942261</v>
       </c>
       <c r="E44">
-        <v>0.006787953751123638</v>
+        <v>-0.005385175174825811</v>
       </c>
       <c r="F44">
-        <v>-0.0873995193286413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03091995556399194</v>
+      </c>
+      <c r="G44">
+        <v>0.01585773362022399</v>
+      </c>
+      <c r="H44">
+        <v>0.0594296292753418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01876426111454196</v>
+        <v>-0.003237369992111259</v>
       </c>
       <c r="C46">
-        <v>-0.00860249713614287</v>
+        <v>0.01322989803369642</v>
       </c>
       <c r="D46">
-        <v>0.04366499596656492</v>
+        <v>0.0102070832761968</v>
       </c>
       <c r="E46">
-        <v>-0.0209656190985732</v>
+        <v>-0.003694094176723256</v>
       </c>
       <c r="F46">
-        <v>-0.0552196427262466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01268113642127997</v>
+      </c>
+      <c r="G46">
+        <v>0.01412134840296365</v>
+      </c>
+      <c r="H46">
+        <v>0.01431098867354107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07490299413981173</v>
+        <v>-0.05367168326826419</v>
       </c>
       <c r="C47">
-        <v>-0.04780701270732035</v>
+        <v>0.06936997399328339</v>
       </c>
       <c r="D47">
-        <v>0.003941592456518411</v>
+        <v>-0.01035520347314851</v>
       </c>
       <c r="E47">
-        <v>-0.03691626278725798</v>
+        <v>-0.01189040199543244</v>
       </c>
       <c r="F47">
-        <v>-0.00650873877169649</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.001807488819328966</v>
+      </c>
+      <c r="G47">
+        <v>0.005206531153591336</v>
+      </c>
+      <c r="H47">
+        <v>-0.03493875075436511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01809900923117253</v>
+        <v>-0.01310929418518129</v>
       </c>
       <c r="C48">
-        <v>-0.008974687469830166</v>
+        <v>0.01580197117626746</v>
       </c>
       <c r="D48">
-        <v>0.01315931052964301</v>
+        <v>-0.0004368866050399116</v>
       </c>
       <c r="E48">
-        <v>-0.01076593127692619</v>
+        <v>-0.001930373095111167</v>
       </c>
       <c r="F48">
-        <v>-0.03113136627810374</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006885480795170549</v>
+      </c>
+      <c r="G48">
+        <v>0.009793633966966505</v>
+      </c>
+      <c r="H48">
+        <v>0.01760432554772418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08403998815000284</v>
+        <v>-0.05538479241996144</v>
       </c>
       <c r="C50">
-        <v>-0.02503450573652004</v>
+        <v>0.06486658223411017</v>
       </c>
       <c r="D50">
-        <v>0.02783569431195207</v>
+        <v>-0.008248247664512202</v>
       </c>
       <c r="E50">
-        <v>-0.02013521193121527</v>
+        <v>-0.02490075621167461</v>
       </c>
       <c r="F50">
-        <v>-0.0164613748157283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01960698800241513</v>
+      </c>
+      <c r="G50">
+        <v>0.001023360354562618</v>
+      </c>
+      <c r="H50">
+        <v>-0.02082475743610227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0162818941490138</v>
+        <v>-0.01417196090996154</v>
       </c>
       <c r="C51">
-        <v>0.0033591786499562</v>
+        <v>0.01708344947333099</v>
       </c>
       <c r="D51">
-        <v>-0.003470977049485905</v>
+        <v>0.00474193774843043</v>
       </c>
       <c r="E51">
-        <v>-0.001784852114974022</v>
+        <v>-0.009753922632072353</v>
       </c>
       <c r="F51">
-        <v>-0.09217397319435867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01097431251458689</v>
+      </c>
+      <c r="G51">
+        <v>0.01709882167242113</v>
+      </c>
+      <c r="H51">
+        <v>0.05021810942020739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08664801104961868</v>
+        <v>-0.07017687230071962</v>
       </c>
       <c r="C53">
-        <v>-0.05008742629021074</v>
+        <v>0.1065525409151917</v>
       </c>
       <c r="D53">
-        <v>0.03589013145624917</v>
+        <v>-0.01148287697696099</v>
       </c>
       <c r="E53">
-        <v>-0.05130254136050925</v>
+        <v>-0.02212926502130998</v>
       </c>
       <c r="F53">
-        <v>0.02926946163592792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01571804510211479</v>
+      </c>
+      <c r="G53">
+        <v>-0.001588945816776771</v>
+      </c>
+      <c r="H53">
+        <v>-0.03946921790770907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02628324807347959</v>
+        <v>-0.02241942432620526</v>
       </c>
       <c r="C54">
-        <v>-0.00026551931396609</v>
+        <v>0.001262350797184493</v>
       </c>
       <c r="D54">
-        <v>-0.004490615479365569</v>
+        <v>-0.006599458178663342</v>
       </c>
       <c r="E54">
-        <v>-0.02161607493662729</v>
+        <v>-0.003302252284795077</v>
       </c>
       <c r="F54">
-        <v>-0.03037989587626756</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02375303889070586</v>
+      </c>
+      <c r="G54">
+        <v>0.02393568802740801</v>
+      </c>
+      <c r="H54">
+        <v>0.006902465847069324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08076562941800458</v>
+        <v>-0.05186317579858703</v>
       </c>
       <c r="C55">
-        <v>-0.0469551947881386</v>
+        <v>0.09506729847379244</v>
       </c>
       <c r="D55">
-        <v>0.04081179258733351</v>
+        <v>-0.009222517450709337</v>
       </c>
       <c r="E55">
-        <v>-0.03872044319252972</v>
+        <v>-0.0135174699264892</v>
       </c>
       <c r="F55">
-        <v>0.03029737697993135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.000534050876476377</v>
+      </c>
+      <c r="G55">
+        <v>0.002077164697223781</v>
+      </c>
+      <c r="H55">
+        <v>-0.03842166995708976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1194951303105252</v>
+        <v>-0.09547124307301581</v>
       </c>
       <c r="C56">
-        <v>-0.07726742964286716</v>
+        <v>0.1362449783154026</v>
       </c>
       <c r="D56">
-        <v>0.01604734842580369</v>
+        <v>-0.02086776755706317</v>
       </c>
       <c r="E56">
-        <v>-0.08400299949276531</v>
+        <v>-0.03211786586899834</v>
       </c>
       <c r="F56">
-        <v>0.05294526603641155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.03745752574744362</v>
+      </c>
+      <c r="G56">
+        <v>-0.005048249561752956</v>
+      </c>
+      <c r="H56">
+        <v>-0.08399661068113316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03432884472702904</v>
+        <v>-0.02112071401489402</v>
       </c>
       <c r="C57">
-        <v>-0.02394749121656256</v>
+        <v>0.03012369569674918</v>
       </c>
       <c r="D57">
-        <v>0.02124457037430399</v>
+        <v>0.02220270332689791</v>
       </c>
       <c r="E57">
-        <v>0.0336844641916965</v>
+        <v>0.01758426625609543</v>
       </c>
       <c r="F57">
-        <v>-0.05674247282639239</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03952769040802398</v>
+      </c>
+      <c r="G57">
+        <v>0.0309228499891992</v>
+      </c>
+      <c r="H57">
+        <v>0.06370283891944288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1385586006994978</v>
+        <v>-0.07110913752277889</v>
       </c>
       <c r="C58">
-        <v>-0.2301380278570795</v>
+        <v>0.1827130096635111</v>
       </c>
       <c r="D58">
-        <v>0.186841659297604</v>
+        <v>0.00350295602047072</v>
       </c>
       <c r="E58">
-        <v>-0.005648313846722813</v>
+        <v>0.558965952929805</v>
       </c>
       <c r="F58">
-        <v>-0.5777105953381282</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.5809461481992523</v>
+      </c>
+      <c r="G58">
+        <v>0.4814305015079102</v>
+      </c>
+      <c r="H58">
+        <v>-0.1159469599481563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05758513176843039</v>
+        <v>-0.210185690635628</v>
       </c>
       <c r="C59">
-        <v>-0.03279145835376186</v>
+        <v>-0.1636677948640168</v>
       </c>
       <c r="D59">
-        <v>-0.1875013374093179</v>
+        <v>-0.02754667635818303</v>
       </c>
       <c r="E59">
-        <v>0.0456126869811352</v>
+        <v>0.01454666744917523</v>
       </c>
       <c r="F59">
-        <v>-0.08372008462656835</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01510483492822048</v>
+      </c>
+      <c r="G59">
+        <v>0.01193124276605335</v>
+      </c>
+      <c r="H59">
+        <v>0.01535600122991562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1249676962546897</v>
+        <v>-0.2266587804853308</v>
       </c>
       <c r="C60">
-        <v>-0.1139909309127473</v>
+        <v>0.07819579340077729</v>
       </c>
       <c r="D60">
-        <v>-0.01490861096008524</v>
+        <v>-0.01226463466223506</v>
       </c>
       <c r="E60">
-        <v>0.02102365775831171</v>
+        <v>0.01781363802169833</v>
       </c>
       <c r="F60">
-        <v>-0.1778784200630599</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1426979211732758</v>
+      </c>
+      <c r="G60">
+        <v>0.04999591759706016</v>
+      </c>
+      <c r="H60">
+        <v>0.3904436367689954</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02187317542045558</v>
+        <v>-0.01142866593799987</v>
       </c>
       <c r="C61">
-        <v>-0.01454594388189677</v>
+        <v>0.06311102030539147</v>
       </c>
       <c r="D61">
-        <v>0.04090913914195275</v>
+        <v>0.001683434217376693</v>
       </c>
       <c r="E61">
-        <v>-0.008350925406261209</v>
+        <v>-0.005238375497552286</v>
       </c>
       <c r="F61">
-        <v>-0.0205104988134217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.006648290893504168</v>
+      </c>
+      <c r="G61">
+        <v>0.02087828112013695</v>
+      </c>
+      <c r="H61">
+        <v>0.05615445628101325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01724350350866482</v>
+        <v>-0.007110480061778641</v>
       </c>
       <c r="C63">
-        <v>-0.005802488933713175</v>
+        <v>0.02381353017048199</v>
       </c>
       <c r="D63">
-        <v>0.01799763968085828</v>
+        <v>0.006215805182281483</v>
       </c>
       <c r="E63">
-        <v>-0.003822866990256563</v>
+        <v>-0.009422849166480483</v>
       </c>
       <c r="F63">
-        <v>-0.002744194940145386</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.006106697392643969</v>
+      </c>
+      <c r="G63">
+        <v>0.01044250387704754</v>
+      </c>
+      <c r="H63">
+        <v>0.01161803497909374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04139635074104968</v>
+        <v>-0.03407831159595667</v>
       </c>
       <c r="C64">
-        <v>-0.009203217734566633</v>
+        <v>0.04563482937323071</v>
       </c>
       <c r="D64">
-        <v>0.02490096558173003</v>
+        <v>0.0005747196816199725</v>
       </c>
       <c r="E64">
-        <v>-0.02235525504778578</v>
+        <v>-0.02152696826614766</v>
       </c>
       <c r="F64">
-        <v>-0.00961324970793884</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.009279831574143464</v>
+      </c>
+      <c r="G64">
+        <v>-0.01181382730335467</v>
+      </c>
+      <c r="H64">
+        <v>0.03674509120557305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03877640146868649</v>
+        <v>-0.04088384264866119</v>
       </c>
       <c r="C65">
-        <v>-0.01901421514138834</v>
+        <v>0.08375502775246123</v>
       </c>
       <c r="D65">
-        <v>0.03958075931848375</v>
+        <v>0.01102937046781529</v>
       </c>
       <c r="E65">
-        <v>-0.03247902464790772</v>
+        <v>-0.01713679886381387</v>
       </c>
       <c r="F65">
-        <v>-0.01374030295312634</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03500924970557671</v>
+      </c>
+      <c r="G65">
+        <v>0.02934471452799096</v>
+      </c>
+      <c r="H65">
+        <v>0.06509093046289886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03312697548257722</v>
+        <v>-0.0101372905295788</v>
       </c>
       <c r="C66">
-        <v>-0.03383139087291608</v>
+        <v>0.1182953593757872</v>
       </c>
       <c r="D66">
-        <v>0.06308416681421261</v>
+        <v>0.005837139081025691</v>
       </c>
       <c r="E66">
-        <v>-0.05119908941235626</v>
+        <v>-0.00192019848162195</v>
       </c>
       <c r="F66">
-        <v>-0.03261145535105947</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03077864482579281</v>
+      </c>
+      <c r="G66">
+        <v>0.03984538391418343</v>
+      </c>
+      <c r="H66">
+        <v>0.08491247129181513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02079770782361397</v>
+        <v>-0.04903389483374461</v>
       </c>
       <c r="C67">
-        <v>-0.01420957361034434</v>
+        <v>0.03012054670674751</v>
       </c>
       <c r="D67">
-        <v>-0.0113692182140269</v>
+        <v>-0.01157945455435243</v>
       </c>
       <c r="E67">
-        <v>0.01188448697149693</v>
+        <v>-0.006854161268292013</v>
       </c>
       <c r="F67">
-        <v>-0.02826836506040072</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0113274050124382</v>
+      </c>
+      <c r="G67">
+        <v>0.01547181274230794</v>
+      </c>
+      <c r="H67">
+        <v>0.03391438519920265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06721695623247315</v>
+        <v>-0.2108167111049969</v>
       </c>
       <c r="C68">
-        <v>-0.02425736912513317</v>
+        <v>-0.2025013652261099</v>
       </c>
       <c r="D68">
-        <v>-0.2096579732955321</v>
+        <v>-0.008403489887931543</v>
       </c>
       <c r="E68">
-        <v>0.059557592580602</v>
+        <v>0.02485675913679038</v>
       </c>
       <c r="F68">
-        <v>-0.0760940261855866</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05762941490929557</v>
+      </c>
+      <c r="G68">
+        <v>-0.009849217714307143</v>
+      </c>
+      <c r="H68">
+        <v>-0.03179936548894419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05961988094478682</v>
+        <v>-0.05448007187943061</v>
       </c>
       <c r="C69">
-        <v>-0.0386355561703558</v>
+        <v>0.06346922008077369</v>
       </c>
       <c r="D69">
-        <v>0.009219431353999614</v>
+        <v>-0.01465894582083621</v>
       </c>
       <c r="E69">
-        <v>-0.0374059530918394</v>
+        <v>-0.01964597597331612</v>
       </c>
       <c r="F69">
-        <v>-0.003127258165062874</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01903080026957646</v>
+      </c>
+      <c r="G69">
+        <v>0.006334710218266813</v>
+      </c>
+      <c r="H69">
+        <v>-0.006477447682801279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07126326550340138</v>
+        <v>-0.1858825022984094</v>
       </c>
       <c r="C71">
-        <v>-0.0328373467907899</v>
+        <v>-0.1582530698507675</v>
       </c>
       <c r="D71">
-        <v>-0.2139102433549527</v>
+        <v>-0.01345328433489014</v>
       </c>
       <c r="E71">
-        <v>0.1006920736827393</v>
+        <v>0.02863342728736273</v>
       </c>
       <c r="F71">
-        <v>-0.08070709083773678</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06076699734049478</v>
+      </c>
+      <c r="G71">
+        <v>-0.01713833758781103</v>
+      </c>
+      <c r="H71">
+        <v>-0.009723477173287028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09879173186402031</v>
+        <v>-0.05354011757136731</v>
       </c>
       <c r="C72">
-        <v>-0.08062794364426375</v>
+        <v>0.1122410589752963</v>
       </c>
       <c r="D72">
-        <v>0.06843149167118118</v>
+        <v>-0.01533480909511079</v>
       </c>
       <c r="E72">
-        <v>-0.08577702535362164</v>
+        <v>-0.0005735165823796259</v>
       </c>
       <c r="F72">
-        <v>-0.09317359267697958</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04004331195598956</v>
+      </c>
+      <c r="G72">
+        <v>0.05934608399603462</v>
+      </c>
+      <c r="H72">
+        <v>0.09009873815039383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1463887571555761</v>
+        <v>-0.2902304984304701</v>
       </c>
       <c r="C73">
-        <v>-0.1904550478954293</v>
+        <v>0.1587532472817098</v>
       </c>
       <c r="D73">
-        <v>-0.006822092379844841</v>
+        <v>-0.01064657085702187</v>
       </c>
       <c r="E73">
-        <v>0.04146275823682107</v>
+        <v>0.05155800525370182</v>
       </c>
       <c r="F73">
-        <v>-0.2028444281288501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1920176553735375</v>
+      </c>
+      <c r="G73">
+        <v>0.05342920859995159</v>
+      </c>
+      <c r="H73">
+        <v>0.4707601854410919</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.110323665858112</v>
+        <v>-0.09505344988225409</v>
       </c>
       <c r="C74">
-        <v>-0.07181721040969696</v>
+        <v>0.1397714699499524</v>
       </c>
       <c r="D74">
-        <v>0.02183381588054383</v>
+        <v>-0.02094619001932156</v>
       </c>
       <c r="E74">
-        <v>-0.05848043024802159</v>
+        <v>-0.02913004268624339</v>
       </c>
       <c r="F74">
-        <v>0.0697419905817387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.02770945445928066</v>
+      </c>
+      <c r="G74">
+        <v>-0.0003679969663558112</v>
+      </c>
+      <c r="H74">
+        <v>-0.05256287291692345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1978984565240078</v>
+        <v>-0.1967655688148132</v>
       </c>
       <c r="C75">
-        <v>-0.1491228114977242</v>
+        <v>0.2336009443096832</v>
       </c>
       <c r="D75">
-        <v>0.009406220065055627</v>
+        <v>-0.04427887161252243</v>
       </c>
       <c r="E75">
-        <v>-0.1714935834881783</v>
+        <v>-0.04005038777363558</v>
       </c>
       <c r="F75">
-        <v>0.1034171757078649</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.07575448177393279</v>
+      </c>
+      <c r="G75">
+        <v>0.01318779760040741</v>
+      </c>
+      <c r="H75">
+        <v>-0.1841279056023004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2495304557255341</v>
+        <v>-0.1451317482820039</v>
       </c>
       <c r="C76">
-        <v>-0.1386066491491716</v>
+        <v>0.2053854814985768</v>
       </c>
       <c r="D76">
-        <v>0.0100282016540204</v>
+        <v>-0.03795472084108135</v>
       </c>
       <c r="E76">
-        <v>-0.1961814571003355</v>
+        <v>-0.07781648015516958</v>
       </c>
       <c r="F76">
-        <v>0.2035501799760086</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05166298800465149</v>
+      </c>
+      <c r="G76">
+        <v>-0.005075342561648525</v>
+      </c>
+      <c r="H76">
+        <v>-0.156920294549822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09200385752652757</v>
+        <v>-0.04456725591230361</v>
       </c>
       <c r="C77">
-        <v>-0.0776050892248896</v>
+        <v>0.0884147331832352</v>
       </c>
       <c r="D77">
-        <v>0.06119981472167364</v>
+        <v>0.008576379898548887</v>
       </c>
       <c r="E77">
-        <v>0.03006140712239242</v>
+        <v>0.02292120149893829</v>
       </c>
       <c r="F77">
-        <v>-0.09870847395833299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04399024317013316</v>
+      </c>
+      <c r="G77">
+        <v>0.01349209031771553</v>
+      </c>
+      <c r="H77">
+        <v>0.01562376728121413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0557062575029554</v>
+        <v>-0.02003546763675279</v>
       </c>
       <c r="C78">
-        <v>-0.0260568761808642</v>
+        <v>0.07620635961478897</v>
       </c>
       <c r="D78">
-        <v>0.09849050755504497</v>
+        <v>0.003224580355684089</v>
       </c>
       <c r="E78">
-        <v>-0.03340661723205714</v>
+        <v>-0.003971308391304504</v>
       </c>
       <c r="F78">
-        <v>-0.07352408916244313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.0118014965183489</v>
+      </c>
+      <c r="G78">
+        <v>0.03627868210789149</v>
+      </c>
+      <c r="H78">
+        <v>0.08622631808078128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6246067012019096</v>
+        <v>-0.09854480533120084</v>
       </c>
       <c r="C80">
-        <v>0.7510096914101779</v>
+        <v>0.1142680776002544</v>
       </c>
       <c r="D80">
-        <v>0.09062455875437157</v>
+        <v>-0.004339826287008026</v>
       </c>
       <c r="E80">
-        <v>0.08257133413901026</v>
+        <v>-0.7121844917034501</v>
       </c>
       <c r="F80">
-        <v>-0.0473815323205053</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.6374134347996849</v>
+      </c>
+      <c r="G80">
+        <v>-0.03460635833361333</v>
+      </c>
+      <c r="H80">
+        <v>0.117916217256232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.16202913250506</v>
+        <v>-0.1244177756694439</v>
       </c>
       <c r="C81">
-        <v>-0.1011145477350943</v>
+        <v>0.1474976963264282</v>
       </c>
       <c r="D81">
-        <v>-0.005368297712679598</v>
+        <v>-0.02714528061417046</v>
       </c>
       <c r="E81">
-        <v>-0.1327809368802111</v>
+        <v>-0.04129184582812026</v>
       </c>
       <c r="F81">
-        <v>0.0876509423612839</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03239267547755279</v>
+      </c>
+      <c r="G81">
+        <v>0.002087401878103334</v>
+      </c>
+      <c r="H81">
+        <v>-0.1134340349546302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.002022151374972099</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0001201758298408229</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0003665989006197641</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.0006556409957911236</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.00198102606029594</v>
+      </c>
+      <c r="G82">
+        <v>-0.0006661163926854485</v>
+      </c>
+      <c r="H82">
+        <v>0.002960692235250919</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02705807055608577</v>
+        <v>-0.0190128030877596</v>
       </c>
       <c r="C83">
-        <v>-0.02586114809889648</v>
+        <v>0.02293249938825848</v>
       </c>
       <c r="D83">
-        <v>0.0224579650020055</v>
+        <v>0.003276552862367129</v>
       </c>
       <c r="E83">
-        <v>0.01825586730680009</v>
+        <v>0.01265494850237041</v>
       </c>
       <c r="F83">
-        <v>-0.04924349054546736</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02050582539758112</v>
+      </c>
+      <c r="G83">
+        <v>0.01761445772974473</v>
+      </c>
+      <c r="H83">
+        <v>0.04182190269203714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2120222390048478</v>
+        <v>-0.1760067063628334</v>
       </c>
       <c r="C85">
-        <v>-0.1476948821128036</v>
+        <v>0.223711350541958</v>
       </c>
       <c r="D85">
-        <v>0.01754808745442771</v>
+        <v>-0.02910091117347752</v>
       </c>
       <c r="E85">
-        <v>-0.1751133437100943</v>
+        <v>-0.04936641522806895</v>
       </c>
       <c r="F85">
-        <v>0.145849004349767</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1036600381346546</v>
+      </c>
+      <c r="G85">
+        <v>-0.02100951887277358</v>
+      </c>
+      <c r="H85">
+        <v>-0.1248784550329433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.008638512300663669</v>
+        <v>-0.009748816900617983</v>
       </c>
       <c r="C86">
-        <v>0.0002458923700259672</v>
+        <v>0.03492326074945856</v>
       </c>
       <c r="D86">
-        <v>0.06496970539999322</v>
+        <v>0.006798578753087316</v>
       </c>
       <c r="E86">
-        <v>0.006151034386747162</v>
+        <v>0.00141297220365779</v>
       </c>
       <c r="F86">
-        <v>-0.04238504475122914</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02426010775911067</v>
+      </c>
+      <c r="G86">
+        <v>0.001778861149355046</v>
+      </c>
+      <c r="H86">
+        <v>0.07382362874564891</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02802381904208276</v>
+        <v>-0.003651305537233957</v>
       </c>
       <c r="C87">
-        <v>-0.01631894142756778</v>
+        <v>0.03887657973104633</v>
       </c>
       <c r="D87">
-        <v>0.0395500613467056</v>
+        <v>0.008504982173836507</v>
       </c>
       <c r="E87">
-        <v>-0.007256172376253093</v>
+        <v>0.01537772900785204</v>
       </c>
       <c r="F87">
-        <v>-0.09201884751997122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0371245658079899</v>
+      </c>
+      <c r="G87">
+        <v>0.04107223743127808</v>
+      </c>
+      <c r="H87">
+        <v>0.07957764784576697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02189936782693702</v>
+        <v>-0.04451463166445294</v>
       </c>
       <c r="C88">
-        <v>0.002209747373232515</v>
+        <v>0.01917747096373092</v>
       </c>
       <c r="D88">
-        <v>-0.001185829111175378</v>
+        <v>0.01639234527267317</v>
       </c>
       <c r="E88">
-        <v>-0.009157813009909617</v>
+        <v>-0.03134947528802691</v>
       </c>
       <c r="F88">
-        <v>0.02989097570483485</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01320708552090817</v>
+      </c>
+      <c r="G88">
+        <v>-0.001488702308218721</v>
+      </c>
+      <c r="H88">
+        <v>0.004714994879902633</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09446626061758437</v>
+        <v>-0.3271047768510706</v>
       </c>
       <c r="C89">
-        <v>-0.05605804353273822</v>
+        <v>-0.2840490022909845</v>
       </c>
       <c r="D89">
-        <v>-0.3510468567050483</v>
+        <v>-0.02372829385917338</v>
       </c>
       <c r="E89">
-        <v>0.06920249546949668</v>
+        <v>0.01461127266532961</v>
       </c>
       <c r="F89">
-        <v>-0.09842961266883636</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.00251686528027343</v>
+      </c>
+      <c r="G89">
+        <v>-0.02148714629327971</v>
+      </c>
+      <c r="H89">
+        <v>-0.0191300966516006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08285496270793836</v>
+        <v>-0.272810752146045</v>
       </c>
       <c r="C90">
-        <v>-0.01846943388959967</v>
+        <v>-0.2631413489297053</v>
       </c>
       <c r="D90">
-        <v>-0.3501746703581626</v>
+        <v>-0.02246998769865407</v>
       </c>
       <c r="E90">
-        <v>0.09238011498799927</v>
+        <v>0.01805563959903024</v>
       </c>
       <c r="F90">
-        <v>-0.03883847546642193</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05084959396268311</v>
+      </c>
+      <c r="G90">
+        <v>-0.02936751174524817</v>
+      </c>
+      <c r="H90">
+        <v>-0.06062315927952096</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2449276684382371</v>
+        <v>-0.188228649965274</v>
       </c>
       <c r="C91">
-        <v>-0.1917941984109667</v>
+        <v>0.2111316886185867</v>
       </c>
       <c r="D91">
-        <v>0.01918614727007791</v>
+        <v>-0.04162823081649679</v>
       </c>
       <c r="E91">
-        <v>-0.1578491102528907</v>
+        <v>-0.03593403240870747</v>
       </c>
       <c r="F91">
-        <v>0.2223418143928229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.07647697170731123</v>
+      </c>
+      <c r="G91">
+        <v>-0.01908480674500744</v>
+      </c>
+      <c r="H91">
+        <v>-0.1988178480204328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1482422981410287</v>
+        <v>-0.2797425010433229</v>
       </c>
       <c r="C92">
-        <v>-0.07045141837229341</v>
+        <v>-0.1703601688763848</v>
       </c>
       <c r="D92">
-        <v>-0.4454289373586373</v>
+        <v>-0.06478431722311934</v>
       </c>
       <c r="E92">
-        <v>-0.00617906372965527</v>
+        <v>0.00835930883858362</v>
       </c>
       <c r="F92">
-        <v>0.1268053350728436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.0650114195702903</v>
+      </c>
+      <c r="G92">
+        <v>0.01158678245584684</v>
+      </c>
+      <c r="H92">
+        <v>-0.1577624193940594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08165065896982766</v>
+        <v>-0.3063642219799455</v>
       </c>
       <c r="C93">
-        <v>-0.06599777870773357</v>
+        <v>-0.256727638428603</v>
       </c>
       <c r="D93">
-        <v>-0.4113849160069093</v>
+        <v>-0.03185708981243553</v>
       </c>
       <c r="E93">
-        <v>0.1434551014002958</v>
+        <v>0.04500228694253523</v>
       </c>
       <c r="F93">
-        <v>-0.05374363854468171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0197158572534258</v>
+      </c>
+      <c r="G93">
+        <v>-0.03862291605930116</v>
+      </c>
+      <c r="H93">
+        <v>0.007416247698619525</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2335144526371383</v>
+        <v>-0.2286454540719724</v>
       </c>
       <c r="C94">
-        <v>-0.1952476880314961</v>
+        <v>0.2362087520023918</v>
       </c>
       <c r="D94">
-        <v>0.01360836229837955</v>
+        <v>-0.03156792266837303</v>
       </c>
       <c r="E94">
-        <v>-0.2483194068476156</v>
+        <v>-0.05755805246842957</v>
       </c>
       <c r="F94">
-        <v>0.1431697063767699</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1755203838132027</v>
+      </c>
+      <c r="G94">
+        <v>0.01852306620811826</v>
+      </c>
+      <c r="H94">
+        <v>-0.4251691101321339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01169409333384958</v>
+        <v>-0.03330301730809297</v>
       </c>
       <c r="C95">
-        <v>-0.09976549362045262</v>
+        <v>0.1036100557890191</v>
       </c>
       <c r="D95">
-        <v>0.03216529127443856</v>
+        <v>-0.01139760381079853</v>
       </c>
       <c r="E95">
-        <v>-0.03276881856195567</v>
+        <v>0.09618816898747738</v>
       </c>
       <c r="F95">
-        <v>-0.02069936912830454</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01743612563375281</v>
+      </c>
+      <c r="G95">
+        <v>0.02445031697957846</v>
+      </c>
+      <c r="H95">
+        <v>0.04662337536576323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1204501283119292</v>
+        <v>-0.1857030924830733</v>
       </c>
       <c r="C98">
-        <v>-0.1206314718510436</v>
+        <v>0.07112347037089084</v>
       </c>
       <c r="D98">
-        <v>-0.02309290396468882</v>
+        <v>-0.03346342520721084</v>
       </c>
       <c r="E98">
-        <v>0.07479084385636829</v>
+        <v>0.06133281820663963</v>
       </c>
       <c r="F98">
-        <v>-0.179371478167881</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.04802077551809399</v>
+      </c>
+      <c r="G98">
+        <v>0.02841330260489693</v>
+      </c>
+      <c r="H98">
+        <v>0.335277650816087</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01102265772230616</v>
+        <v>-0.005467748027954291</v>
       </c>
       <c r="C101">
-        <v>0.0005708760252390915</v>
+        <v>0.01843152914658338</v>
       </c>
       <c r="D101">
-        <v>0.0494971619845262</v>
+        <v>0.005884872924858045</v>
       </c>
       <c r="E101">
-        <v>-0.0222660015047353</v>
+        <v>0.0171328249002841</v>
       </c>
       <c r="F101">
-        <v>-0.1758422490830518</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.05081350529489463</v>
+      </c>
+      <c r="G101">
+        <v>0.06031831587008128</v>
+      </c>
+      <c r="H101">
+        <v>0.008888722184161695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1048858733259004</v>
+        <v>-0.09434906194733458</v>
       </c>
       <c r="C102">
-        <v>-0.07151111510871277</v>
+        <v>0.112004574292832</v>
       </c>
       <c r="D102">
-        <v>0.00600839896424567</v>
+        <v>-0.008526507042757248</v>
       </c>
       <c r="E102">
-        <v>-0.09045156700015865</v>
+        <v>-0.02646416884507629</v>
       </c>
       <c r="F102">
-        <v>0.08716100467479068</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.05169986255147044</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002422022333326992</v>
+      </c>
+      <c r="H102">
+        <v>-0.07298108812372488</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04821559503556965</v>
+        <v>-0.01140920534788667</v>
       </c>
       <c r="C103">
-        <v>-0.01608323429282427</v>
+        <v>0.01922644081363465</v>
       </c>
       <c r="D103">
-        <v>0.01512661136903653</v>
+        <v>-0.001351787297744153</v>
       </c>
       <c r="E103">
-        <v>-0.04452809915093677</v>
+        <v>-0.01206569044140978</v>
       </c>
       <c r="F103">
-        <v>0.0112970217877602</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01096469403033787</v>
+      </c>
+      <c r="G103">
+        <v>0.004881936127790537</v>
+      </c>
+      <c r="H103">
+        <v>-0.01780747279318819</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1055251990767658</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.02316036590309933</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9799988773309259</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.05509324350133394</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.05503810667863868</v>
+      </c>
+      <c r="G104">
+        <v>0.09562825152739778</v>
+      </c>
+      <c r="H104">
+        <v>-0.05866155216545136</v>
       </c>
     </row>
   </sheetData>
